--- a/testData/Hana_T796.xlsx
+++ b/testData/Hana_T796.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7E25D-C380-4400-8640-1B51746AB2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92563E1-C25C-4C3A-BBCE-193EC3F695C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Golf Club</t>
   </si>
   <si>
-    <t xml:space="preserve"> 4215 Hunt Rd, Farmington, MO 63640</t>
-  </si>
-  <si>
     <t>4215 Hunt Rd</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>LJB Liam Jack Benjamin</t>
+  </si>
+  <si>
+    <t>4215 Hunt Rd, Farmington, MO 63640</t>
   </si>
 </sst>
 </file>
@@ -181,12 +181,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -566,7 +567,7 @@
         <v>19</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -583,13 +584,13 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>22</v>
@@ -618,8 +619,8 @@
       <c r="P2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>33</v>
+      <c r="Q2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
